--- a/powerapp/data/substations.xlsx
+++ b/powerapp/data/substations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC1338A-1F51-40C8-A9BF-48E4A851A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A5A6A3-C5F2-9245-A224-A82C04FEB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="28680" yWindow="620" windowWidth="29040" windowHeight="15720" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="681">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -2052,13 +2052,43 @@
   </si>
   <si>
     <t>coordinate</t>
+  </si>
+  <si>
+    <t>Hunstman Tioxide Switching Station</t>
+  </si>
+  <si>
+    <t>HTSS</t>
+  </si>
+  <si>
+    <t>Pahang</t>
+  </si>
+  <si>
+    <t>Kampung Gajah</t>
+  </si>
+  <si>
+    <t>KGJH</t>
+  </si>
+  <si>
+    <t>Perak</t>
+  </si>
+  <si>
+    <t>Melaka</t>
+  </si>
+  <si>
+    <t>Terengganu</t>
+  </si>
+  <si>
+    <t>N.Sembilan</t>
+  </si>
+  <si>
+    <t>Kedah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2151,7 +2181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2194,6 +2224,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2531,11 +2564,11 @@
   <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="16"/>
     <col min="2" max="2" width="17" style="4" customWidth="1"/>
@@ -2546,7 +2579,7 @@
     <col min="10" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="15" customFormat="1" ht="15.5">
+    <row r="1" spans="1:9" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>669</v>
       </c>
@@ -2567,7 +2600,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2622,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2600,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2644,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2622,7 +2655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -2644,7 +2677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -2655,7 +2688,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -2666,7 +2699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2677,7 +2710,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2721,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2699,7 +2732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2710,7 +2743,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -2721,7 +2754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -2732,7 +2765,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -2743,7 +2776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
@@ -2754,7 +2787,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -2765,7 +2798,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
@@ -2776,7 +2809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
@@ -2787,7 +2820,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
@@ -2798,7 +2831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>21</v>
       </c>
@@ -2809,7 +2842,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
@@ -2820,7 +2853,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
@@ -2831,7 +2864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>21</v>
       </c>
@@ -2842,7 +2875,10 @@
         <v>614</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2853,7 +2889,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
@@ -2864,7 +2903,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
@@ -2875,7 +2917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
@@ -2886,7 +2928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +2950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
@@ -2919,7 +2961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
@@ -2930,7 +2972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
@@ -2941,7 +2983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>3</v>
       </c>
@@ -2952,7 +2994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>3</v>
       </c>
@@ -2963,7 +3005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>21</v>
       </c>
@@ -2974,7 +3016,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +3027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="16" customFormat="1">
+    <row r="40" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
@@ -2997,7 +3039,7 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:9" s="19" customFormat="1">
+    <row r="41" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="4" t="s">
         <v>42</v>
@@ -3014,7 +3056,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" s="19" customFormat="1">
+    <row r="42" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="4" t="s">
         <v>42</v>
@@ -3031,7 +3073,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>64</v>
       </c>
@@ -3042,7 +3084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>64</v>
       </c>
@@ -3053,7 +3095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>64</v>
       </c>
@@ -3064,7 +3106,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
@@ -3075,7 +3117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>29</v>
       </c>
@@ -3086,7 +3128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>29</v>
       </c>
@@ -3097,7 +3139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>29</v>
       </c>
@@ -3108,7 +3150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>29</v>
       </c>
@@ -3119,7 +3161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>29</v>
       </c>
@@ -3130,7 +3172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="4" t="s">
         <v>29</v>
@@ -3147,7 +3189,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" s="6" customFormat="1">
+    <row r="53" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="4" t="s">
         <v>85</v>
@@ -3164,7 +3206,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" s="6" customFormat="1">
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="4" t="s">
         <v>64</v>
@@ -3181,7 +3223,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" s="6" customFormat="1">
+    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="4" t="s">
         <v>64</v>
@@ -3198,7 +3240,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" s="6" customFormat="1">
+    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="4" t="s">
         <v>64</v>
@@ -3215,7 +3257,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" s="6" customFormat="1">
+    <row r="57" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="4" t="s">
         <v>64</v>
@@ -3232,7 +3274,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" s="6" customFormat="1">
+    <row r="58" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -3249,7 +3291,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" s="6" customFormat="1">
+    <row r="59" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="4" t="s">
         <v>29</v>
@@ -3266,7 +3308,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" s="6" customFormat="1">
+    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="4" t="s">
         <v>3</v>
@@ -3283,7 +3325,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" s="6" customFormat="1">
+    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="4" t="s">
         <v>3</v>
@@ -3300,7 +3342,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" s="6" customFormat="1">
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="4" t="s">
         <v>0</v>
@@ -3317,7 +3359,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" s="6" customFormat="1">
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="4" t="s">
         <v>0</v>
@@ -3334,7 +3376,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" s="6" customFormat="1">
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="4" t="s">
         <v>42</v>
@@ -3351,7 +3393,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" s="6" customFormat="1">
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="4" t="s">
         <v>16</v>
@@ -3368,7 +3410,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>16</v>
       </c>
@@ -3379,7 +3421,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>16</v>
       </c>
@@ -3390,7 +3432,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>115</v>
       </c>
@@ -3401,7 +3443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>118</v>
       </c>
@@ -3412,7 +3454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3423,7 +3465,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>21</v>
       </c>
@@ -3434,7 +3476,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
         <v>47</v>
       </c>
@@ -3445,7 +3487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
         <v>115</v>
       </c>
@@ -3456,7 +3498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>47</v>
       </c>
@@ -3467,7 +3509,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>16</v>
       </c>
@@ -3478,7 +3520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>16</v>
       </c>
@@ -3489,7 +3531,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +3542,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3553,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>0</v>
       </c>
@@ -3522,7 +3564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
         <v>21</v>
       </c>
@@ -3544,7 +3586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="19" customFormat="1">
+    <row r="82" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="18"/>
       <c r="B82" s="4" t="s">
         <v>21</v>
@@ -3561,7 +3603,7 @@
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" spans="1:9" s="19" customFormat="1">
+    <row r="83" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="18"/>
       <c r="B83" s="4" t="s">
         <v>29</v>
@@ -3578,7 +3620,7 @@
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
         <v>29</v>
       </c>
@@ -3589,7 +3631,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
         <v>29</v>
       </c>
@@ -3600,7 +3642,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="4" t="s">
         <v>115</v>
       </c>
@@ -3611,7 +3653,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
         <v>16</v>
       </c>
@@ -3622,7 +3664,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="4" t="s">
         <v>118</v>
       </c>
@@ -3633,7 +3675,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
         <v>16</v>
       </c>
@@ -3644,7 +3686,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
         <v>16</v>
       </c>
@@ -3655,7 +3697,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
         <v>29</v>
       </c>
@@ -3666,7 +3708,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>29</v>
       </c>
@@ -3677,7 +3719,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>29</v>
       </c>
@@ -3688,7 +3730,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>42</v>
       </c>
@@ -3699,7 +3741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
         <v>85</v>
       </c>
@@ -3721,7 +3763,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="19" customFormat="1">
+    <row r="97" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="18"/>
       <c r="B97" s="4" t="s">
         <v>16</v>
@@ -3738,7 +3780,7 @@
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" s="19" customFormat="1">
+    <row r="98" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="18"/>
       <c r="B98" s="4" t="s">
         <v>16</v>
@@ -3755,7 +3797,7 @@
       <c r="H98" s="18"/>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>47</v>
       </c>
@@ -3766,7 +3808,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
         <v>47</v>
       </c>
@@ -3777,7 +3819,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>47</v>
       </c>
@@ -3788,7 +3830,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="19" customFormat="1">
+    <row r="102" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="18"/>
       <c r="B102" s="4" t="s">
         <v>47</v>
@@ -3805,7 +3847,7 @@
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>42</v>
       </c>
@@ -3816,7 +3858,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>42</v>
       </c>
@@ -3827,7 +3869,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>42</v>
       </c>
@@ -3838,7 +3880,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
         <v>42</v>
       </c>
@@ -3849,7 +3891,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>42</v>
       </c>
@@ -3860,7 +3902,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>42</v>
       </c>
@@ -3871,7 +3913,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>42</v>
       </c>
@@ -3882,7 +3924,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3935,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
         <v>0</v>
       </c>
@@ -3904,7 +3946,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="4" t="s">
         <v>0</v>
       </c>
@@ -3915,7 +3957,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +3968,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3979,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
         <v>0</v>
       </c>
@@ -3948,7 +3990,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="4" t="s">
         <v>21</v>
       </c>
@@ -3959,7 +4001,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +4012,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="4" t="s">
         <v>21</v>
       </c>
@@ -3981,7 +4023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
         <v>64</v>
       </c>
@@ -3992,7 +4034,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="4" t="s">
         <v>64</v>
       </c>
@@ -4003,7 +4045,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B121" s="4" t="s">
         <v>29</v>
       </c>
@@ -4014,7 +4059,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B122" s="4" t="s">
         <v>29</v>
       </c>
@@ -4025,7 +4073,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>118</v>
       </c>
@@ -4036,7 +4084,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
         <v>118</v>
       </c>
@@ -4047,7 +4095,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
         <v>118</v>
       </c>
@@ -4058,7 +4106,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="4" t="s">
         <v>118</v>
       </c>
@@ -4069,7 +4117,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="19" customFormat="1">
+    <row r="127" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="18"/>
       <c r="B127" s="4" t="s">
         <v>47</v>
@@ -4086,7 +4134,7 @@
       <c r="H127" s="18"/>
       <c r="I127" s="18"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="4" t="s">
         <v>47</v>
       </c>
@@ -4097,7 +4145,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
         <v>47</v>
       </c>
@@ -4108,7 +4156,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="4" t="s">
         <v>47</v>
       </c>
@@ -4119,7 +4167,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
         <v>42</v>
       </c>
@@ -4130,7 +4178,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="4" t="s">
         <v>42</v>
       </c>
@@ -4141,7 +4189,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
         <v>42</v>
       </c>
@@ -4152,7 +4200,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="4" t="s">
         <v>42</v>
       </c>
@@ -4163,7 +4211,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
         <v>42</v>
       </c>
@@ -4174,7 +4222,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="s">
         <v>42</v>
       </c>
@@ -4185,7 +4233,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
         <v>42</v>
       </c>
@@ -4196,7 +4244,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="4" t="s">
         <v>47</v>
       </c>
@@ -4207,7 +4255,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
         <v>47</v>
       </c>
@@ -4218,7 +4266,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="4" t="s">
         <v>47</v>
       </c>
@@ -4229,7 +4277,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="14.5" customHeight="1">
+    <row r="141" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
         <v>47</v>
       </c>
@@ -4240,7 +4288,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="14.5" customHeight="1">
+    <row r="142" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="4" t="s">
         <v>47</v>
       </c>
@@ -4251,7 +4299,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="14.5" customHeight="1">
+    <row r="143" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
         <v>47</v>
       </c>
@@ -4262,7 +4310,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="14.5" customHeight="1">
+    <row r="144" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="4" t="s">
         <v>47</v>
       </c>
@@ -4273,7 +4321,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.5" customHeight="1">
+    <row r="145" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
         <v>16</v>
       </c>
@@ -4284,7 +4332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.5" customHeight="1">
+    <row r="146" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="4" t="s">
         <v>16</v>
       </c>
@@ -4295,7 +4343,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.5" customHeight="1">
+    <row r="147" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
         <v>47</v>
       </c>
@@ -4306,7 +4354,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.5" customHeight="1">
+    <row r="148" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="4" t="s">
         <v>3</v>
       </c>
@@ -4317,7 +4365,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="14.5" customHeight="1">
+    <row r="149" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
         <v>3</v>
       </c>
@@ -4328,7 +4376,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="14.5" customHeight="1">
+    <row r="150" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="4" t="s">
         <v>3</v>
       </c>
@@ -4339,7 +4387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
         <v>0</v>
       </c>
@@ -4350,7 +4398,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B152" s="4" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4409,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
         <v>0</v>
       </c>
@@ -4372,7 +4420,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
         <v>0</v>
       </c>
@@ -4383,7 +4431,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4442,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="19" customFormat="1">
+    <row r="156" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="18"/>
       <c r="B156" s="4" t="s">
         <v>21</v>
@@ -4411,7 +4459,7 @@
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" spans="1:9" s="19" customFormat="1" ht="14" customHeight="1">
+    <row r="157" spans="1:9" s="19" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="18"/>
       <c r="B157" s="4" t="s">
         <v>21</v>
@@ -4428,7 +4476,7 @@
       <c r="H157" s="18"/>
       <c r="I157" s="18"/>
     </row>
-    <row r="158" spans="1:9" s="19" customFormat="1">
+    <row r="158" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="18"/>
       <c r="B158" s="4" t="s">
         <v>21</v>
@@ -4445,7 +4493,7 @@
       <c r="H158" s="18"/>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
         <v>85</v>
       </c>
@@ -4456,7 +4504,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B160" s="4" t="s">
         <v>16</v>
       </c>
@@ -4467,7 +4515,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
         <v>16</v>
       </c>
@@ -4478,7 +4526,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="19" customFormat="1">
+    <row r="162" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="18"/>
       <c r="B162" s="4" t="s">
         <v>16</v>
@@ -4495,7 +4543,7 @@
       <c r="H162" s="18"/>
       <c r="I162" s="18"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B163" s="4" t="s">
         <v>16</v>
       </c>
@@ -4506,7 +4554,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B164" s="4" t="s">
         <v>29</v>
       </c>
@@ -4517,7 +4565,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4576,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
         <v>13</v>
       </c>
@@ -4539,7 +4587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
         <v>118</v>
       </c>
@@ -4550,7 +4598,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B168" s="4" t="s">
         <v>3</v>
       </c>
@@ -4561,7 +4609,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B169" s="4" t="s">
         <v>13</v>
       </c>
@@ -4572,7 +4620,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B170" s="4" t="s">
         <v>13</v>
       </c>
@@ -4583,7 +4631,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B171" s="4" t="s">
         <v>85</v>
       </c>
@@ -4594,7 +4642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" s="4" t="s">
         <v>21</v>
       </c>
@@ -4605,7 +4653,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" s="4" t="s">
         <v>21</v>
       </c>
@@ -4616,7 +4664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B174" s="4" t="s">
         <v>16</v>
       </c>
@@ -4627,7 +4675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
         <v>16</v>
       </c>
@@ -4638,7 +4686,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="19" customFormat="1">
+    <row r="176" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="18"/>
       <c r="B176" s="4" t="s">
         <v>16</v>
@@ -4655,7 +4703,7 @@
       <c r="H176" s="18"/>
       <c r="I176" s="18"/>
     </row>
-    <row r="177" spans="1:9" s="19" customFormat="1">
+    <row r="177" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="18"/>
       <c r="B177" s="4" t="s">
         <v>29</v>
@@ -4672,7 +4720,7 @@
       <c r="H177" s="18"/>
       <c r="I177" s="18"/>
     </row>
-    <row r="178" spans="1:9" s="19" customFormat="1">
+    <row r="178" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="18"/>
       <c r="B178" s="4" t="s">
         <v>115</v>
@@ -4689,7 +4737,7 @@
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B179" s="4" t="s">
         <v>115</v>
       </c>
@@ -4700,7 +4748,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B180" s="4" t="s">
         <v>115</v>
       </c>
@@ -4711,7 +4759,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B181" s="4" t="s">
         <v>115</v>
       </c>
@@ -4722,7 +4770,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B182" s="4" t="s">
         <v>115</v>
       </c>
@@ -4733,7 +4781,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
         <v>47</v>
       </c>
@@ -4744,7 +4792,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B184" s="4" t="s">
         <v>47</v>
       </c>
@@ -4755,7 +4803,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
         <v>47</v>
       </c>
@@ -4766,7 +4814,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B186" s="4" t="s">
         <v>47</v>
       </c>
@@ -4777,7 +4825,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
         <v>47</v>
       </c>
@@ -4788,7 +4836,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B188" s="4" t="s">
         <v>47</v>
       </c>
@@ -4799,7 +4847,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B189" s="4" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4858,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B190" s="4" t="s">
         <v>47</v>
       </c>
@@ -4821,7 +4869,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B191" s="4" t="s">
         <v>47</v>
       </c>
@@ -4832,7 +4880,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="19" customFormat="1">
+    <row r="192" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="18"/>
       <c r="B192" s="4" t="s">
         <v>47</v>
@@ -4849,7 +4897,7 @@
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="2:4">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
         <v>47</v>
       </c>
@@ -4860,7 +4908,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>47</v>
       </c>
@@ -4871,7 +4919,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
         <v>13</v>
       </c>
@@ -4882,7 +4930,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="4" t="s">
         <v>13</v>
       </c>
@@ -4893,7 +4941,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
         <v>13</v>
       </c>
@@ -4904,7 +4952,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="14.5" customHeight="1">
+    <row r="198" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="4" t="s">
         <v>13</v>
       </c>
@@ -4915,7 +4963,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="14.5" customHeight="1">
+    <row r="199" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
         <v>13</v>
       </c>
@@ -4926,7 +4974,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="14.5" customHeight="1">
+    <row r="200" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="4" t="s">
         <v>118</v>
       </c>
@@ -4937,7 +4985,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="14.5" customHeight="1">
+    <row r="201" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
         <v>3</v>
       </c>
@@ -4948,7 +4996,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="14.5" customHeight="1">
+    <row r="202" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="4" t="s">
         <v>3</v>
       </c>
@@ -4959,7 +5007,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="14.5" customHeight="1">
+    <row r="203" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
         <v>3</v>
       </c>
@@ -4970,7 +5018,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
         <v>3</v>
       </c>
@@ -4981,7 +5029,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
         <v>3</v>
       </c>
@@ -4992,7 +5040,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="4" t="s">
         <v>3</v>
       </c>
@@ -5003,7 +5051,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
         <v>16</v>
       </c>
@@ -5014,7 +5062,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
         <v>29</v>
       </c>
@@ -5025,7 +5073,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B209" s="4" t="s">
         <v>29</v>
       </c>
@@ -5036,7 +5084,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B210" s="4" t="s">
         <v>21</v>
       </c>
@@ -5047,7 +5095,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B211" s="4" t="s">
         <v>3</v>
       </c>
@@ -5058,7 +5106,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B212" s="4" t="s">
         <v>118</v>
       </c>
@@ -5069,7 +5117,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B213" s="4" t="s">
         <v>118</v>
       </c>
@@ -5080,7 +5128,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="19" customFormat="1">
+    <row r="214" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="18"/>
       <c r="B214" s="4" t="s">
         <v>118</v>
@@ -5097,7 +5145,7 @@
       <c r="H214" s="18"/>
       <c r="I214" s="18"/>
     </row>
-    <row r="215" spans="1:9" s="19" customFormat="1">
+    <row r="215" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="18"/>
       <c r="B215" s="4" t="s">
         <v>118</v>
@@ -5114,7 +5162,7 @@
       <c r="H215" s="18"/>
       <c r="I215" s="18"/>
     </row>
-    <row r="216" spans="1:9" s="19" customFormat="1">
+    <row r="216" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="18"/>
       <c r="B216" s="4" t="s">
         <v>16</v>
@@ -5131,7 +5179,7 @@
       <c r="H216" s="18"/>
       <c r="I216" s="18"/>
     </row>
-    <row r="217" spans="1:9" s="19" customFormat="1">
+    <row r="217" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="18"/>
       <c r="B217" s="4" t="s">
         <v>16</v>
@@ -5148,7 +5196,7 @@
       <c r="H217" s="18"/>
       <c r="I217" s="18"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B218" s="4" t="s">
         <v>42</v>
       </c>
@@ -5159,7 +5207,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B219" s="4" t="s">
         <v>85</v>
       </c>
@@ -5170,7 +5218,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B220" s="4" t="s">
         <v>85</v>
       </c>
@@ -5181,7 +5229,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B221" s="4" t="s">
         <v>85</v>
       </c>
@@ -5192,7 +5240,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B222" s="4" t="s">
         <v>85</v>
       </c>
@@ -5203,7 +5251,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B223" s="4" t="s">
         <v>85</v>
       </c>
@@ -5214,7 +5262,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B224" s="4" t="s">
         <v>29</v>
       </c>
@@ -5225,7 +5273,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="225" spans="2:4">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
         <v>29</v>
       </c>
@@ -5236,7 +5284,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="2:4">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="4" t="s">
         <v>29</v>
       </c>
@@ -5247,7 +5295,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="2:4">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
         <v>21</v>
       </c>
@@ -5258,7 +5306,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" s="4" t="s">
         <v>21</v>
       </c>
@@ -5269,7 +5317,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
         <v>21</v>
       </c>
@@ -5280,7 +5328,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
         <v>21</v>
       </c>
@@ -5291,7 +5339,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="231" spans="2:4">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
         <v>21</v>
       </c>
@@ -5302,7 +5350,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="4" t="s">
         <v>21</v>
       </c>
@@ -5313,7 +5361,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
         <v>21</v>
       </c>
@@ -5324,7 +5372,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="4" t="s">
         <v>42</v>
       </c>
@@ -5335,7 +5383,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
         <v>42</v>
       </c>
@@ -5346,7 +5394,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="4" t="s">
         <v>42</v>
       </c>
@@ -5357,7 +5405,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
         <v>29</v>
       </c>
@@ -5368,7 +5416,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="2:4">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" s="4" t="s">
         <v>29</v>
       </c>
@@ -5379,7 +5427,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="239" spans="2:4">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
         <v>42</v>
       </c>
@@ -5390,7 +5438,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="240" spans="2:4">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="4" t="s">
         <v>29</v>
       </c>
@@ -5401,7 +5449,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
         <v>29</v>
       </c>
@@ -5412,7 +5460,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B242" s="4" t="s">
         <v>29</v>
       </c>
@@ -5423,7 +5471,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B243" s="4" t="s">
         <v>3</v>
       </c>
@@ -5434,7 +5482,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B244" s="4" t="s">
         <v>3</v>
       </c>
@@ -5445,7 +5493,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B245" s="4" t="s">
         <v>3</v>
       </c>
@@ -5456,7 +5504,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B246" s="4" t="s">
         <v>3</v>
       </c>
@@ -5467,7 +5515,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="19" customFormat="1">
+    <row r="247" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="18"/>
       <c r="B247" s="4" t="s">
         <v>3</v>
@@ -5484,7 +5532,7 @@
       <c r="H247" s="18"/>
       <c r="I247" s="18"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B248" s="4" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5543,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B249" s="4" t="s">
         <v>118</v>
       </c>
@@ -5506,7 +5554,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B250" s="4" t="s">
         <v>118</v>
       </c>
@@ -5517,7 +5565,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
         <v>118</v>
       </c>
@@ -5528,7 +5576,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="19" customFormat="1">
+    <row r="252" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="18"/>
       <c r="B252" s="4" t="s">
         <v>118</v>
@@ -5545,7 +5593,7 @@
       <c r="H252" s="18"/>
       <c r="I252" s="18"/>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B253" s="4" t="s">
         <v>64</v>
       </c>
@@ -5556,7 +5604,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="4" t="s">
         <v>16</v>
       </c>
@@ -5567,7 +5615,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B255" s="4" t="s">
         <v>16</v>
       </c>
@@ -5578,7 +5626,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B256" s="4" t="s">
         <v>21</v>
       </c>
@@ -5589,7 +5637,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B257" s="4" t="s">
         <v>42</v>
       </c>
@@ -5600,7 +5648,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B258" s="4" t="s">
         <v>3</v>
       </c>
@@ -5611,7 +5659,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B259" s="4" t="s">
         <v>3</v>
       </c>
@@ -5622,7 +5670,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B260" s="4" t="s">
         <v>118</v>
       </c>
@@ -5633,7 +5681,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B261" s="4" t="s">
         <v>118</v>
       </c>
@@ -5644,7 +5692,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B262" s="4" t="s">
         <v>118</v>
       </c>
@@ -5655,7 +5703,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B263" s="4" t="s">
         <v>118</v>
       </c>
@@ -5666,7 +5714,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B264" s="4" t="s">
         <v>118</v>
       </c>
@@ -5677,7 +5725,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B265" s="4" t="s">
         <v>47</v>
       </c>
@@ -5688,7 +5736,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="19" customFormat="1">
+    <row r="266" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="18"/>
       <c r="B266" s="4" t="s">
         <v>0</v>
@@ -5705,7 +5753,7 @@
       <c r="H266" s="18"/>
       <c r="I266" s="18"/>
     </row>
-    <row r="267" spans="1:9" s="19" customFormat="1">
+    <row r="267" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="18"/>
       <c r="B267" s="4" t="s">
         <v>13</v>
@@ -5722,7 +5770,7 @@
       <c r="H267" s="18"/>
       <c r="I267" s="18"/>
     </row>
-    <row r="268" spans="1:9" s="19" customFormat="1">
+    <row r="268" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="18"/>
       <c r="B268" s="4" t="s">
         <v>118</v>
@@ -5739,7 +5787,7 @@
       <c r="H268" s="18"/>
       <c r="I268" s="18"/>
     </row>
-    <row r="269" spans="1:9" s="19" customFormat="1">
+    <row r="269" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="18"/>
       <c r="B269" s="4" t="s">
         <v>3</v>
@@ -5756,7 +5804,7 @@
       <c r="H269" s="18"/>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9" s="19" customFormat="1">
+    <row r="270" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="18"/>
       <c r="B270" s="4" t="s">
         <v>47</v>
@@ -5773,7 +5821,7 @@
       <c r="H270" s="18"/>
       <c r="I270" s="18"/>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B271" s="4" t="s">
         <v>29</v>
       </c>
@@ -5784,7 +5832,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B272" s="4" t="s">
         <v>3</v>
       </c>
@@ -5795,7 +5843,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B273" s="4" t="s">
         <v>16</v>
       </c>
@@ -5806,7 +5854,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B274" s="4" t="s">
         <v>118</v>
       </c>
@@ -5817,7 +5865,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B275" s="4" t="s">
         <v>29</v>
       </c>
@@ -5828,7 +5876,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B276" s="4" t="s">
         <v>29</v>
       </c>
@@ -5839,7 +5887,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
         <v>85</v>
       </c>
@@ -5850,7 +5898,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B278" s="4" t="s">
         <v>29</v>
       </c>
@@ -5861,7 +5909,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
         <v>29</v>
       </c>
@@ -5872,7 +5920,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B280" s="4" t="s">
         <v>29</v>
       </c>
@@ -5883,7 +5931,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B281" s="4" t="s">
         <v>3</v>
       </c>
@@ -5894,7 +5942,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B282" s="4" t="s">
         <v>29</v>
       </c>
@@ -5905,7 +5953,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B283" s="4" t="s">
         <v>21</v>
       </c>
@@ -5916,7 +5964,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="6" customFormat="1">
+    <row r="284" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
       <c r="B284" s="4" t="s">
         <v>0</v>
@@ -5933,7 +5981,7 @@
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
     </row>
-    <row r="285" spans="1:9" s="6" customFormat="1">
+    <row r="285" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
       <c r="B285" s="4" t="s">
         <v>21</v>
@@ -5950,7 +5998,7 @@
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
     </row>
-    <row r="286" spans="1:9" s="6" customFormat="1">
+    <row r="286" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
       <c r="B286" s="4" t="s">
         <v>3</v>
@@ -5967,7 +6015,7 @@
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
     </row>
-    <row r="287" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1">
+    <row r="287" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
       <c r="B287" s="4" t="s">
         <v>13</v>
@@ -5984,7 +6032,7 @@
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
       <c r="B288" s="4" t="s">
         <v>21</v>
@@ -6001,7 +6049,7 @@
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
     </row>
-    <row r="289" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1">
+    <row r="289" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
       <c r="B289" s="4" t="s">
         <v>29</v>
@@ -6018,7 +6066,7 @@
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
     </row>
-    <row r="290" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1">
+    <row r="290" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
       <c r="B290" s="4" t="s">
         <v>29</v>
@@ -6035,7 +6083,7 @@
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
     </row>
-    <row r="291" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1">
+    <row r="291" spans="1:9" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
       <c r="B291" s="4" t="s">
         <v>29</v>
@@ -6052,7 +6100,7 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
     </row>
-    <row r="292" spans="1:9" s="6" customFormat="1">
+    <row r="292" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
       <c r="B292" s="4" t="s">
         <v>3</v>
@@ -6069,7 +6117,7 @@
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
     </row>
-    <row r="293" spans="1:9" s="6" customFormat="1">
+    <row r="293" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
       <c r="B293" s="4" t="s">
         <v>16</v>
@@ -6086,7 +6134,7 @@
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
     </row>
-    <row r="294" spans="1:9" s="6" customFormat="1">
+    <row r="294" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
       <c r="B294" s="4" t="s">
         <v>47</v>
@@ -6103,7 +6151,7 @@
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
     </row>
-    <row r="295" spans="1:9" s="6" customFormat="1">
+    <row r="295" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
       <c r="B295" s="4" t="s">
         <v>3</v>
@@ -6120,7 +6168,7 @@
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
     </row>
-    <row r="296" spans="1:9" s="6" customFormat="1">
+    <row r="296" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
       <c r="B296" s="4" t="s">
         <v>3</v>
@@ -6137,7 +6185,7 @@
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
     </row>
-    <row r="297" spans="1:9" s="6" customFormat="1">
+    <row r="297" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="B297" s="4" t="s">
         <v>29</v>
@@ -6154,7 +6202,7 @@
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
     </row>
-    <row r="298" spans="1:9" s="6" customFormat="1">
+    <row r="298" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
       <c r="B298" s="4" t="s">
         <v>3</v>
@@ -6171,7 +6219,7 @@
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
     </row>
-    <row r="299" spans="1:9" s="6" customFormat="1">
+    <row r="299" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
       <c r="B299" s="4" t="s">
         <v>64</v>
@@ -6188,7 +6236,7 @@
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
     </row>
-    <row r="300" spans="1:9" s="6" customFormat="1">
+    <row r="300" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
       <c r="B300" s="4" t="s">
         <v>21</v>
@@ -6205,7 +6253,7 @@
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
     </row>
-    <row r="301" spans="1:9" s="6" customFormat="1">
+    <row r="301" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
       <c r="B301" s="4" t="s">
         <v>3</v>
@@ -6222,7 +6270,7 @@
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
     </row>
-    <row r="302" spans="1:9" s="6" customFormat="1">
+    <row r="302" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
       <c r="B302" s="4" t="s">
         <v>47</v>
@@ -6239,7 +6287,7 @@
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
     </row>
-    <row r="303" spans="1:9" s="7" customFormat="1">
+    <row r="303" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="4" t="s">
         <v>29</v>
       </c>
@@ -6250,7 +6298,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="7" customFormat="1">
+    <row r="304" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="4" t="s">
         <v>42</v>
       </c>
@@ -6261,7 +6309,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="305" spans="2:4" s="7" customFormat="1">
+    <row r="305" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="4" t="s">
         <v>64</v>
       </c>
@@ -6272,7 +6320,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="306" spans="2:4" s="7" customFormat="1">
+    <row r="306" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="4" t="s">
         <v>29</v>
       </c>
@@ -6283,7 +6331,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="307" spans="2:4" s="7" customFormat="1">
+    <row r="307" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="4" t="s">
         <v>29</v>
       </c>
@@ -6294,7 +6342,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="308" spans="2:4" s="7" customFormat="1">
+    <row r="308" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="4" t="s">
         <v>29</v>
       </c>
@@ -6305,7 +6353,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="309" spans="2:4" s="7" customFormat="1">
+    <row r="309" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="4" t="s">
         <v>16</v>
       </c>
@@ -6316,7 +6364,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="310" spans="2:4" s="7" customFormat="1">
+    <row r="310" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="4" t="s">
         <v>29</v>
       </c>
@@ -6327,7 +6375,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="311" spans="2:4" s="7" customFormat="1">
+    <row r="311" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="4" t="s">
         <v>29</v>
       </c>
@@ -6338,7 +6386,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="312" spans="2:4" s="7" customFormat="1">
+    <row r="312" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="4" t="s">
         <v>29</v>
       </c>
@@ -6349,7 +6397,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="313" spans="2:4" s="7" customFormat="1">
+    <row r="313" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
         <v>47</v>
       </c>
@@ -6360,7 +6408,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="314" spans="2:4" s="7" customFormat="1">
+    <row r="314" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="4" t="s">
         <v>29</v>
       </c>
@@ -6371,7 +6419,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="315" spans="2:4" s="7" customFormat="1">
+    <row r="315" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="4" t="s">
         <v>29</v>
       </c>
@@ -6382,7 +6430,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="316" spans="2:4" s="7" customFormat="1">
+    <row r="316" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="4" t="s">
         <v>29</v>
       </c>
@@ -6393,7 +6441,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="317" spans="2:4" s="7" customFormat="1">
+    <row r="317" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="4" t="s">
         <v>42</v>
       </c>
@@ -6404,7 +6452,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="318" spans="2:4" s="7" customFormat="1">
+    <row r="318" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="4" t="s">
         <v>85</v>
       </c>
@@ -6415,7 +6463,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="319" spans="2:4" s="7" customFormat="1">
+    <row r="319" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="4" t="s">
         <v>0</v>
       </c>
@@ -6426,7 +6474,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="320" spans="2:4" s="7" customFormat="1">
+    <row r="320" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="4" t="s">
         <v>29</v>
       </c>
@@ -6437,7 +6485,10 @@
         <v>651</v>
       </c>
     </row>
-    <row r="321" spans="2:4" s="7" customFormat="1">
+    <row r="321" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="B321" s="4" t="s">
         <v>29</v>
       </c>
@@ -6448,7 +6499,10 @@
         <v>653</v>
       </c>
     </row>
-    <row r="322" spans="2:4" s="7" customFormat="1">
+    <row r="322" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="B322" s="4" t="s">
         <v>29</v>
       </c>
@@ -6459,7 +6513,10 @@
         <v>655</v>
       </c>
     </row>
-    <row r="323" spans="2:4" s="7" customFormat="1">
+    <row r="323" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="7" t="s">
+        <v>680</v>
+      </c>
       <c r="B323" s="4" t="s">
         <v>85</v>
       </c>
@@ -6470,7 +6527,10 @@
         <v>656</v>
       </c>
     </row>
-    <row r="324" spans="2:4" s="7" customFormat="1">
+    <row r="324" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="7" t="s">
+        <v>679</v>
+      </c>
       <c r="B324" s="4" t="s">
         <v>42</v>
       </c>
@@ -6481,7 +6541,10 @@
         <v>657</v>
       </c>
     </row>
-    <row r="325" spans="2:4" s="7" customFormat="1">
+    <row r="325" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="7" t="s">
+        <v>678</v>
+      </c>
       <c r="B325" s="4" t="s">
         <v>13</v>
       </c>
@@ -6492,7 +6555,10 @@
         <v>658</v>
       </c>
     </row>
-    <row r="326" spans="2:4" s="7" customFormat="1">
+    <row r="326" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="7" t="s">
+        <v>677</v>
+      </c>
       <c r="B326" s="4" t="s">
         <v>47</v>
       </c>
@@ -6503,7 +6569,10 @@
         <v>659</v>
       </c>
     </row>
-    <row r="327" spans="2:4" s="7" customFormat="1">
+    <row r="327" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="B327" s="4" t="s">
         <v>29</v>
       </c>
@@ -6514,7 +6583,10 @@
         <v>666</v>
       </c>
     </row>
-    <row r="328" spans="2:4" s="7" customFormat="1">
+    <row r="328" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="7" t="s">
+        <v>677</v>
+      </c>
       <c r="B328" s="4" t="s">
         <v>47</v>
       </c>
@@ -6525,655 +6597,676 @@
         <v>667</v>
       </c>
     </row>
-    <row r="329" spans="2:4" s="7" customFormat="1">
-      <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
-      <c r="D329" s="6"/>
-    </row>
-    <row r="330" spans="2:4" s="7" customFormat="1">
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
-      <c r="D330" s="6"/>
-    </row>
-    <row r="331" spans="2:4" s="7" customFormat="1">
+    <row r="329" spans="1:4" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="D329" s="10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
-      <c r="D331" s="6"/>
-    </row>
-    <row r="332" spans="2:4" s="7" customFormat="1">
+      <c r="D331" s="10"/>
+    </row>
+    <row r="332" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
-      <c r="D332" s="6"/>
-    </row>
-    <row r="333" spans="2:4" s="7" customFormat="1">
+      <c r="D332" s="10"/>
+    </row>
+    <row r="333" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
-      <c r="D333" s="6"/>
-    </row>
-    <row r="334" spans="2:4" s="7" customFormat="1">
+      <c r="D333" s="10"/>
+    </row>
+    <row r="334" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
-      <c r="D334" s="6"/>
-    </row>
-    <row r="335" spans="2:4" s="7" customFormat="1">
+      <c r="D334" s="10"/>
+    </row>
+    <row r="335" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
-      <c r="D335" s="6"/>
-    </row>
-    <row r="336" spans="2:4" s="7" customFormat="1">
+      <c r="D335" s="10"/>
+    </row>
+    <row r="336" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-    </row>
-    <row r="337" spans="2:5" s="7" customFormat="1">
+      <c r="D336" s="10"/>
+    </row>
+    <row r="337" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
-      <c r="D337" s="6"/>
-    </row>
-    <row r="338" spans="2:5" s="7" customFormat="1">
+      <c r="D337" s="10"/>
+    </row>
+    <row r="338" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
-      <c r="D338" s="6"/>
-    </row>
-    <row r="339" spans="2:5" s="7" customFormat="1">
+      <c r="D338" s="10"/>
+    </row>
+    <row r="339" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
-      <c r="D339" s="6"/>
-    </row>
-    <row r="340" spans="2:5" s="7" customFormat="1">
+      <c r="D339" s="10"/>
+    </row>
+    <row r="340" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
-      <c r="D340" s="6"/>
-    </row>
-    <row r="341" spans="2:5" s="7" customFormat="1">
+      <c r="D340" s="10"/>
+    </row>
+    <row r="341" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
-      <c r="D341" s="6"/>
-    </row>
-    <row r="342" spans="2:5" s="12" customFormat="1">
+      <c r="D341" s="10"/>
+    </row>
+    <row r="342" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
+      <c r="D342" s="10"/>
       <c r="E342" s="7"/>
     </row>
-    <row r="343" spans="2:5" s="12" customFormat="1">
+    <row r="343" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
-      <c r="D343" s="6"/>
+      <c r="D343" s="10"/>
       <c r="E343" s="7"/>
     </row>
-    <row r="344" spans="2:5" s="12" customFormat="1">
+    <row r="344" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
-      <c r="D344" s="6"/>
+      <c r="D344" s="10"/>
       <c r="E344" s="7"/>
     </row>
-    <row r="345" spans="2:5" s="12" customFormat="1">
+    <row r="345" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
-      <c r="D345" s="6"/>
+      <c r="D345" s="10"/>
       <c r="E345" s="7"/>
     </row>
-    <row r="346" spans="2:5" s="12" customFormat="1">
+    <row r="346" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
-      <c r="D346" s="6"/>
+      <c r="D346" s="10"/>
       <c r="E346" s="7"/>
     </row>
-    <row r="347" spans="2:5" s="12" customFormat="1">
+    <row r="347" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
-      <c r="D347" s="6"/>
+      <c r="D347" s="10"/>
       <c r="E347" s="7"/>
     </row>
-    <row r="348" spans="2:5" s="12" customFormat="1">
+    <row r="348" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
-      <c r="D348" s="6"/>
+      <c r="D348" s="10"/>
       <c r="E348" s="7"/>
     </row>
-    <row r="349" spans="2:5" s="12" customFormat="1">
+    <row r="349" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
-      <c r="D349" s="6"/>
+      <c r="D349" s="10"/>
       <c r="E349" s="7"/>
     </row>
-    <row r="350" spans="2:5" s="12" customFormat="1">
+    <row r="350" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
-      <c r="D350" s="6"/>
+      <c r="D350" s="10"/>
       <c r="E350" s="7"/>
     </row>
-    <row r="351" spans="2:5" s="12" customFormat="1">
+    <row r="351" spans="2:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
-      <c r="D351" s="6"/>
+      <c r="D351" s="10"/>
       <c r="E351" s="7"/>
     </row>
-    <row r="352" spans="2:5">
+    <row r="352" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
-      <c r="D352" s="6"/>
-    </row>
-    <row r="353" spans="2:4">
+      <c r="D352" s="10"/>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
-      <c r="D353" s="6"/>
-    </row>
-    <row r="354" spans="2:4">
+      <c r="D353" s="10"/>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
-      <c r="D354" s="6"/>
-    </row>
-    <row r="355" spans="2:4">
+      <c r="D354" s="10"/>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-    </row>
-    <row r="356" spans="2:4">
+      <c r="D355" s="10"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
-      <c r="D356" s="6"/>
-    </row>
-    <row r="357" spans="2:4">
+      <c r="D356" s="10"/>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="2:4">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="2:4">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="2:4">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="2:4">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="2:4">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="2:4">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="2:4">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="2:4">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="2:4">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="2:4">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="2:4">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="2:2">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="2:2">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="2:2">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="2:2">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="2:2">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="2:2">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="2:2">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="2:2">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="2:2">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="2:2">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="2:2">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="2:2">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="2:2">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="2:2">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="2:2">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="2:2">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="2:2">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="2:2">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="2:2">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="2:2">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="2:2">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="2:2">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="2:2">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="2:2">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="2:2">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="2:2">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="2:2">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="2:2">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="2:2">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="2:2">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="2:2">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="2:2">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="2:2">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="2:2">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="2:2">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="2:2">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="2:2">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="2:2">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="2:2">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="2:2">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="2:2">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="2:2">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="2:2">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="2:2">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="2:2">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="2:2">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="2:2">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="2:2">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="2:2">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="2:2">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="2:2">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="2:2">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="2:2">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="2:2">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="2:2">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="2:2">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="2:2">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="2:2">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="2:2">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="2:2">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="2:2">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="2:2">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="2:2">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="2:2">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="2:2">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="2:2">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="2:2">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="2:2">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="2:2">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="2:2">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="2:2">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="2:2">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="2:2">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="2:2">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="2:2">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="2:2">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="2:2">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="2:2">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="2:2">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="2:2">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="2:2">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="2:2">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="2:2">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="2:2">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="2:2">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="2:2">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="2:2">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="2:2">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="2:2">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="2:2">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="2:2">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="2:2">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="2:2">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="2:2">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="2:2">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="2:2">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="2:2">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="2:2">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="2:2">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="2:2">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="2:2">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="2:2">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="2:2">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="2:2">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="2:2">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="2:2">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="2:2">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="2:2">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="2:2">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="2:2">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="2:2">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="2:2">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="2:2">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="2:2">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="2:2">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="2:2">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="2:2">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="2:2">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="2:2">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="2:2">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="2:2">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="2:2">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B519" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:D328" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">
       <formula1>"South-JB, South-Kluang, South-Melaka, South-N9, KL, Selangor, North-Ipoh, North-Perda, North-Kedah_Perlis, East-KB, East-Dungun, East-Kuantan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{E4082EB5-1A60-8B46-9F5D-6932B4F7CD9A}">
       <formula1>"LPC, Switching_Station, Local_Load, LSS, Power_Station, HVDC"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{36E51DC0-9F32-C346-BEA6-FB362CFC6A95}">
+      <formula1>"Kedah, Perlis, Penang, Perak, Selangor, KL, N.Sembilan, Melaka, Johor, Pahang, Terengganu, Kelantan"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/powerapp/data/substations.xlsx
+++ b/powerapp/data/substations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A5A6A3-C5F2-9245-A224-A82C04FEB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F993549-08CF-CE4E-9919-2F48E57F49E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="620" windowWidth="29040" windowHeight="15720" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="substation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$B$1:$D$328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$E$330</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="682">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -2078,10 +2078,13 @@
     <t>Terengganu</t>
   </si>
   <si>
-    <t>N.Sembilan</t>
-  </si>
-  <si>
     <t>Kedah</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Negeri Sembilan</t>
   </si>
 </sst>
 </file>
@@ -2564,8 +2567,8 @@
   <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A320" sqref="A320"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3925,6 +3928,9 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
+        <v>673</v>
+      </c>
       <c r="B110" s="4" t="s">
         <v>0</v>
       </c>
@@ -4897,7 +4903,7 @@
       <c r="H192" s="18"/>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
         <v>47</v>
       </c>
@@ -4908,7 +4914,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B194" s="4" t="s">
         <v>47</v>
       </c>
@@ -4919,7 +4925,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
+        <v>678</v>
+      </c>
       <c r="B195" s="4" t="s">
         <v>13</v>
       </c>
@@ -4930,7 +4939,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B196" s="4" t="s">
         <v>13</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
         <v>13</v>
       </c>
@@ -4952,7 +4961,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="4" t="s">
         <v>13</v>
       </c>
@@ -4963,7 +4972,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="4" t="s">
         <v>118</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
         <v>3</v>
       </c>
@@ -4996,7 +5005,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="4" t="s">
         <v>3</v>
       </c>
@@ -5007,7 +5016,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="203" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
         <v>3</v>
       </c>
@@ -5018,7 +5027,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B204" s="4" t="s">
         <v>3</v>
       </c>
@@ -5029,7 +5038,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
         <v>3</v>
       </c>
@@ -5040,7 +5049,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B206" s="4" t="s">
         <v>3</v>
       </c>
@@ -5051,7 +5060,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B208" s="4" t="s">
         <v>29</v>
       </c>
@@ -6501,7 +6510,7 @@
     </row>
     <row r="322" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
-        <v>29</v>
+        <v>680</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>29</v>
@@ -6515,7 +6524,7 @@
     </row>
     <row r="323" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>85</v>
@@ -6529,7 +6538,7 @@
     </row>
     <row r="324" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>42</v>
@@ -7255,7 +7264,7 @@
       <c r="B519" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D328" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:E330" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">
@@ -7265,7 +7274,7 @@
       <formula1>"LPC, Switching_Station, Local_Load, LSS, Power_Station, HVDC"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{36E51DC0-9F32-C346-BEA6-FB362CFC6A95}">
-      <formula1>"Kedah, Perlis, Penang, Perak, Selangor, KL, N.Sembilan, Melaka, Johor, Pahang, Terengganu, Kelantan"</formula1>
+      <formula1>"Kedah, Perlis, Pulau Pinang, Perak, Selangor, Kuala Lumpur, Negeri Sembilan, Melaka, Johor, Pahang, Terengganu, Kelantan"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/powerapp/data/substations.xlsx
+++ b/powerapp/data/substations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F993549-08CF-CE4E-9919-2F48E57F49E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5143688-F5BA-7B43-91A2-7E91C9C7551D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="620" windowWidth="29040" windowHeight="15720" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="5440" yWindow="2720" windowWidth="29040" windowHeight="15720" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="684">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -2085,6 +2085,12 @@
   </si>
   <si>
     <t>Negeri Sembilan</t>
+  </si>
+  <si>
+    <t>Pulau Pinang</t>
+  </si>
+  <si>
+    <t>Johor</t>
   </si>
 </sst>
 </file>
@@ -2567,8 +2573,8 @@
   <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3312,7 +3318,9 @@
       <c r="I59" s="7"/>
     </row>
     <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
+      <c r="A60" s="7" t="s">
+        <v>683</v>
+      </c>
       <c r="B60" s="4" t="s">
         <v>3</v>
       </c>
@@ -5282,7 +5290,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
         <v>29</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="4" t="s">
         <v>29</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
         <v>21</v>
       </c>
@@ -5315,7 +5323,10 @@
         <v>308</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="16" t="s">
+        <v>682</v>
+      </c>
       <c r="B228" s="4" t="s">
         <v>21</v>
       </c>
@@ -5326,7 +5337,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
         <v>21</v>
       </c>
@@ -5337,7 +5348,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B230" s="4" t="s">
         <v>21</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
         <v>21</v>
       </c>
@@ -5359,7 +5370,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B232" s="4" t="s">
         <v>21</v>
       </c>
@@ -5370,7 +5381,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
         <v>21</v>
       </c>
@@ -5381,7 +5392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B234" s="4" t="s">
         <v>42</v>
       </c>
@@ -5392,7 +5403,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
         <v>42</v>
       </c>
@@ -5403,7 +5414,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B236" s="4" t="s">
         <v>42</v>
       </c>
@@ -5414,7 +5425,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
         <v>29</v>
       </c>
@@ -5425,7 +5436,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B238" s="4" t="s">
         <v>29</v>
       </c>
@@ -5436,7 +5447,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
         <v>42</v>
       </c>
@@ -5447,7 +5458,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B240" s="4" t="s">
         <v>29</v>
       </c>
